--- a/biology/Botanique/Acca_(plante)/Acca_(plante).xlsx
+++ b/biology/Botanique/Acca_(plante)/Acca_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acca est un genre de plantes de la famille des Myrtaceae.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 mai 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 mai 2018) :
 Acca lanuginosa (Ruiz &amp; Pav. ex G. Don) McVaugh
 Acca sellowiana (O. Berg) Burret
-Selon Catalogue of Life                                   (24 mai 2018)[3], World Checklist of Selected Plant Families (WCSP)  (24 mai 2018)[4] et The Plant List            (24 mai 2018)[5] :
+Selon Catalogue of Life                                   (24 mai 2018), World Checklist of Selected Plant Families (WCSP)  (24 mai 2018) et The Plant List            (24 mai 2018) :
 Acca lanuginosa (Ruiz &amp; Pav. ex G.Don) McVaugh (1956)
 Acca macrostema (Ruiz &amp; Pav. ex G.Don) McVaugh (1956)
 Acca sellowiana (O.Berg) Burret (1941)
-Selon ITIS      (24 mai 2018)[6] et NCBI  (24 mai 2018)[7] :
+Selon ITIS      (24 mai 2018) et NCBI  (24 mai 2018) :
 Acca sellowiana (O. Berg) Burret
-Selon Tropicos                                           (24 mai 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 Acca domingensis O. Berg
 Acca glazioviana Kiaersk.
 Acca lanuginosa (Ruiz &amp; Pav. ex G. Don) McVaugh
